--- a/Document/测试角色Ver0.1.xlsx
+++ b/Document/测试角色Ver0.1.xlsx
@@ -1,378 +1,719 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6079CD-A02C-4E23-BBC5-B5476B62E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="2895" windowWidth="28740" windowHeight="9915" xr2:uid="{52DD2695-D1CB-4A82-BBB4-168B4A5D3B01}"/>
+    <workbookView windowWidth="29868" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>卡牌名字</t>
+  </si>
+  <si>
+    <t>卡牌效果</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>int,int</t>
+  </si>
+  <si>
+    <t>List,Special</t>
+  </si>
   <si>
     <t>轻装战士A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀歌：如果自己回合结束处于最前方，那么对所有敌人造成两点伤害</t>
+  </si>
+  <si>
+    <t>轻身</t>
   </si>
   <si>
     <t>弃一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>1,1</t>
   </si>
   <si>
     <t>刺拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成2点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雀歌：如果自己回合结束处于最前方，那么对所有敌人造成两点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害</t>
   </si>
   <si>
     <t>重拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成3点伤害，击退1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害，击退1</t>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获得3点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卷云式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List,Special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽三张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冥思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在0-+1设立区域，区域拥有【加速1】，持续3回合</t>
   </si>
   <si>
     <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将一个友方角色移动到+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>须臾山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将【火焰】从0移动到+1，持续5回合，移除这张卡直到战斗结束</t>
   </si>
   <si>
     <t>Epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装A</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>每回合初始位置+1，每回合抽取手牌+1</t>
+  </si>
+  <si>
+    <t>重甲</t>
+  </si>
+  <si>
+    <t>前进1，获得8点护甲</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>造成所拥有护甲的伤害</t>
+  </si>
+  <si>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>获得【护卫】（为友方承受伤害），持续2回合</t>
+  </si>
+  <si>
+    <t>战争怒吼</t>
+  </si>
+  <si>
+    <t>所有友方单位【前进1】</t>
+  </si>
+  <si>
+    <t>铁壁铸造</t>
+  </si>
+  <si>
+    <t>在+7-+8设立区域，区域拥有【格挡2】，持续3回合</t>
+  </si>
+  <si>
+    <t>辕门护卫</t>
+  </si>
+  <si>
+    <t>结束自己的回合并立刻开始一个友方的回合，移除这张卡直到战斗结束</t>
+  </si>
+  <si>
+    <t>珠联璧合</t>
+  </si>
+  <si>
+    <t>直到自己下个回合开始，每有一个友方角色行动就获得2护甲</t>
   </si>
   <si>
     <t>法师A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合初始位置+1，每回合抽取手牌+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前进1，获得8点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成所拥有护甲的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得【护卫】（为友方承受伤害），持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在0-+1设立区域，区域拥有【加速1】，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将【火焰】从0移动到+1，持续5回合，移除这张卡直到战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争怒吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有友方单位【前进1】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在+7-+8设立区域，区域拥有【格挡2】，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁壁铸造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辕门护卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束自己的回合并立刻开始一个友方的回合，移除这张卡直到战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠联璧合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时想不出来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔能重塑：当结束回合时手牌≥1张时下回合额外抽取一张。</t>
   </si>
   <si>
     <t>火墙术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在-3--4设立区域，经过时受到2点伤害，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡波</t>
+  </si>
+  <si>
+    <t>所有敌人退后1然后前进1，重复一次</t>
+  </si>
+  <si>
+    <t>呵斥</t>
+  </si>
+  <si>
+    <t>让一个敌人退后4，然后受到2点伤害</t>
+  </si>
+  <si>
+    <t>法师护甲</t>
+  </si>
+  <si>
+    <t>所有友方单位获得1点护甲</t>
   </si>
   <si>
     <t>黑洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在-7--8设立区域，经过时受到12点伤害，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震荡波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有敌人退后1然后前进1，重复一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呵斥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有友方单位获得1点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让一个敌人退后4，然后受到2点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴风雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有敌人退后1，受到1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启明星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使一名友方角色下个回合抽2张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直到自己下个回合开始，每有一个友方角色行动就获得2护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>区域固化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使一个区域持续回合变成无限，移除这张卡直到战斗结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传教士A</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>魔力残留：使用卡牌时获得1点临时护甲。</t>
+  </si>
+  <si>
+    <t>福泽</t>
+  </si>
+  <si>
+    <t>给予一个友方单位【福泽】（在进入危险区时获得3点护盾）持续2回合</t>
+  </si>
+  <si>
+    <t>圣裁时刻</t>
+  </si>
+  <si>
+    <t>使一个敌方单位获得当前时间轴的破甲。</t>
+  </si>
+  <si>
+    <t>破晓耀斑</t>
+  </si>
+  <si>
+    <t>造成敌方全体单位1点伤害。</t>
+  </si>
+  <si>
+    <t>驱散</t>
+  </si>
+  <si>
+    <t>移除一个单位身上所有buff/debuff</t>
+  </si>
+  <si>
+    <t>激励之声</t>
+  </si>
+  <si>
+    <t>使一个单位立即进行行动，该次行动只能使用基础牌。</t>
+  </si>
+  <si>
+    <t>神恩豁免</t>
+  </si>
+  <si>
+    <t>给予一个友方单位受到伤害-1攻击修正，直到该角色进入危险区。</t>
+  </si>
+  <si>
+    <t>苦修</t>
+  </si>
+  <si>
+    <t>给予一个友方单位【苦修】（每次行动时-1张角色卡，buff移除时回复角色5HP）持续2回合</t>
+  </si>
+  <si>
+    <t>坚定不移</t>
+  </si>
+  <si>
+    <t>给予自身与一名友方单位【坚定不移】（分担伤害）持续3回合。</t>
   </si>
   <si>
     <t>游侠A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动的时候，每移动1格就随机对一名敌方角色造成1点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游击：移动的时候，每移动一格时随机对一名敌方角色造成1点伤害</t>
+  </si>
+  <si>
+    <t>紧急回避</t>
+  </si>
+  <si>
+    <t>向后移动2格。</t>
+  </si>
+  <si>
+    <t>战术掩护</t>
+  </si>
+  <si>
+    <t>获得【战术掩护】（友方单位进行基础牌时进行一次基础牌（攻击），持续2回合</t>
+  </si>
+  <si>
+    <t>侧翼射击</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>获得【隐身】（无法被单体攻击选中，使用造成伤害牌与受到伤害时解除）持续2回合</t>
+  </si>
+  <si>
+    <t>射手A</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>角色处于3-4号位置时，获得+2攻击修正。</t>
+  </si>
+  <si>
+    <t>狙击</t>
+  </si>
+  <si>
+    <t>造成2点伤害。</t>
+  </si>
+  <si>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>对指定角色区域降下箭雨，对中心角色造成3点伤害，前后一格造成1点伤害。</t>
+  </si>
+  <si>
+    <t>倾泻</t>
+  </si>
+  <si>
+    <t>丢弃手牌，造成2点伤害，根据丢弃的数量重复一次。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -380,9 +721,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -391,17 +974,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,7 +1077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -483,26 +1110,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -535,23 +1145,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,44 +1286,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672EBA10-7C27-43BE-8AF4-0B961AA2634C}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="71.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="6" max="6" width="6.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="19.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -742,158 +1331,158 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="4:8">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>-2</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -904,180 +1493,180 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
       <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
       <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
       <c r="D18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -1092,81 +1681,81 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
       <c r="D24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
       <c r="D25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
       <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8">
       <c r="D27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
       <c r="D28" t="s">
         <v>67</v>
       </c>
@@ -1177,13 +1766,13 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
       <c r="D29" t="s">
         <v>69</v>
       </c>
@@ -1194,42 +1783,196 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
       <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
         <v>72</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Document/测试角色Ver0.1.xlsx
+++ b/Document/测试角色Ver0.1.xlsx
@@ -82,7 +82,7 @@
     <t>造成3点伤害</t>
   </si>
   <si>
-    <t>重拳</t>
+    <t>铁山靠</t>
   </si>
   <si>
     <t>造成2点伤害，击退1</t>
@@ -359,14 +359,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,148 +817,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
